--- a/cta策略/result/螺纹/KDJ_1d/wfo_组合绩效.xlsx
+++ b/cta策略/result/螺纹/KDJ_1d/wfo_组合绩效.xlsx
@@ -423,16 +423,16 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>-0.02661452468385794</v>
+        <v>0.08530454849644564</v>
       </c>
       <c r="D2">
-        <v>-0.857016875661154</v>
+        <v>0.2933567919624471</v>
       </c>
       <c r="E2">
-        <v>-0.09585674017282074</v>
+        <v>0.3856432727014904</v>
       </c>
       <c r="F2">
-        <v>0.1875</v>
+        <v>0.5882352941176471</v>
       </c>
     </row>
   </sheetData>

--- a/cta策略/result/螺纹/KDJ_1d/wfo_组合绩效.xlsx
+++ b/cta策略/result/螺纹/KDJ_1d/wfo_组合绩效.xlsx
@@ -423,16 +423,16 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>0.08530454849644564</v>
+        <v>-0.03593317148573327</v>
       </c>
       <c r="D2">
-        <v>0.2933567919624471</v>
+        <v>-0.3256067797109257</v>
       </c>
       <c r="E2">
-        <v>0.3856432727014904</v>
+        <v>-0.07056055828126394</v>
       </c>
       <c r="F2">
-        <v>0.5882352941176471</v>
+        <v>0.6470588235294118</v>
       </c>
     </row>
   </sheetData>
